--- a/biology/Zoologie/Erythemis_vesiculosa/Erythemis_vesiculosa.xlsx
+++ b/biology/Zoologie/Erythemis_vesiculosa/Erythemis_vesiculosa.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Erythemis vesiculosa est une espèce d'insectes de la famille des Libellulidae appartenant au sous-ordre des anisoptères dans l'ordre des odonates[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Erythemis vesiculosa est une espèce d'insectes de la famille des Libellulidae appartenant au sous-ordre des anisoptères dans l'ordre des odonates.
 </t>
         </is>
       </c>
@@ -511,9 +523,11 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">C'est une libellule néotropicale mesurant 56-59 mm de long. Le front et le vertex sont verts et les yeux sont d'un dégradé de beige à brun foncé. Le thorax et l'abdomen sont de couleur vert lime. L'abdomen est marqué de petites bandes horizontales noires. Le mâle et la femelle sont identiques [2].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">C'est une libellule néotropicale mesurant 56-59 mm de long. Le front et le vertex sont verts et les yeux sont d'un dégradé de beige à brun foncé. Le thorax et l'abdomen sont de couleur vert lime. L'abdomen est marqué de petites bandes horizontales noires. Le mâle et la femelle sont identiques .
 </t>
         </is>
       </c>
@@ -542,9 +556,11 @@
           <t>Répartition</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Erythemis vesiculosa a été mentionnée dans le Sud-Est des États-Unis, au Mexique, dans plusieurs pays des Antilles, du Guatemala au Panama et en Amérique du Sud[3].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Erythemis vesiculosa a été mentionnée dans le Sud-Est des États-Unis, au Mexique, dans plusieurs pays des Antilles, du Guatemala au Panama et en Amérique du Sud.
 </t>
         </is>
       </c>
@@ -573,9 +589,11 @@
           <t>Habitat</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette espèce se retrouve dans les étangs permanents et temporaires et les rivières[3]. Elle est également mentionnée dans les ruisseaux mais ne s'y reproduirait pas[4].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette espèce se retrouve dans les étangs permanents et temporaires et les rivières. Elle est également mentionnée dans les ruisseaux mais ne s'y reproduirait pas.
 </t>
         </is>
       </c>
